--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value470.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value470.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9345537499242862</v>
+        <v>0.9221131205558777</v>
       </c>
       <c r="B1">
-        <v>1.230814220376197</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.956780295631679</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>4.995520774112514</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.931559278804687</v>
+        <v>1.2928466796875</v>
       </c>
     </row>
   </sheetData>
